--- a/0-data/0-raw/tree2h.xlsx
+++ b/0-data/0-raw/tree2h.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed\Desktop\terrain_mesures_millan2020\arbres_mtg\arbre2\A2H\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cirad.fr\AMAP - FSPM - Analyses\Allometries\0-data\0-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="A2H" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C132" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U42" sqref="U42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,7 +1093,7 @@
       <c r="V39" s="2"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K40">
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
+      <c r="B41" t="s">
         <v>37</v>
       </c>
       <c r="G41">
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K42">
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>37</v>
       </c>
       <c r="G43">
@@ -1190,12 +1190,12 @@
         <v>0.59770000000000001</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U42:U63" si="0">S43+T43</f>
+        <f t="shared" ref="U43:U63" si="0">S43+T43</f>
         <v>2.2042000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K44">
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E45" t="s">
+      <c r="D45" t="s">
         <v>37</v>
       </c>
       <c r="G45">
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="G46">
@@ -1289,7 +1289,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K47">
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E48" t="s">
+      <c r="D48" t="s">
         <v>37</v>
       </c>
       <c r="G48">
@@ -1339,8 +1339,8 @@
         <v>0.18149999999999999</v>
       </c>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>41</v>
       </c>
       <c r="G49">
@@ -1382,16 +1382,16 @@
         <v>1.4424999999999999</v>
       </c>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E50" s="4" t="s">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D50" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K50">
         <v>1798</v>
       </c>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E51" t="s">
+    <row r="51" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
         <v>37</v>
       </c>
       <c r="G51">
@@ -1433,8 +1433,8 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+    <row r="52" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>42</v>
       </c>
       <c r="G52">
@@ -1476,16 +1476,16 @@
         <v>1.4548000000000001</v>
       </c>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E53" s="4" t="s">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D53" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K53">
         <v>1801</v>
       </c>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E54" t="s">
+    <row r="54" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
         <v>37</v>
       </c>
       <c r="G54">
@@ -1527,8 +1527,8 @@
         <v>0.21479999999999999</v>
       </c>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>43</v>
       </c>
       <c r="G55">
@@ -1570,16 +1570,16 @@
         <v>1.0253999999999999</v>
       </c>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E56" s="4" t="s">
+    <row r="56" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D56" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K56">
         <v>1804</v>
       </c>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E57" t="s">
+    <row r="57" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
         <v>37</v>
       </c>
       <c r="G57">
@@ -1621,8 +1621,8 @@
         <v>0.20169999999999999</v>
       </c>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>44</v>
       </c>
       <c r="G58">
@@ -1664,16 +1664,16 @@
         <v>1.0630999999999999</v>
       </c>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E59" s="4" t="s">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D59" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K59">
         <v>1807</v>
       </c>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E60" t="s">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
         <v>37</v>
       </c>
       <c r="G60">
@@ -1715,8 +1715,8 @@
         <v>0.22770000000000001</v>
       </c>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>45</v>
       </c>
       <c r="G61">
@@ -1758,16 +1758,16 @@
         <v>0.8488</v>
       </c>
     </row>
-    <row r="62" spans="4:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="4" t="s">
+    <row r="62" spans="3:21" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K62">
         <v>1810</v>
       </c>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E63" t="s">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
         <v>37</v>
       </c>
       <c r="G63">
@@ -1809,8 +1809,8 @@
         <v>0.1075</v>
       </c>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
+    <row r="64" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>46</v>
       </c>
       <c r="G64">
@@ -1852,16 +1852,16 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E65" s="4" t="s">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D65" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K65">
         <v>1813</v>
       </c>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E66" t="s">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
         <v>37</v>
       </c>
       <c r="G66">
@@ -1903,8 +1903,8 @@
         <v>0.216</v>
       </c>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
         <v>47</v>
       </c>
       <c r="G67">
@@ -1917,8 +1917,8 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E68" s="4" t="s">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D68" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K68" s="12">
@@ -1954,8 +1954,8 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E69" t="s">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
         <v>37</v>
       </c>
       <c r="G69">
@@ -1997,8 +1997,8 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
         <v>48</v>
       </c>
       <c r="G70">
@@ -2040,16 +2040,16 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E71" s="4" t="s">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D71" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K71">
         <v>1819</v>
       </c>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E72" t="s">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
         <v>37</v>
       </c>
       <c r="G72">
@@ -2062,8 +2062,8 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>49</v>
       </c>
       <c r="G73">
@@ -2105,16 +2105,16 @@
         <v>0.56699999999999995</v>
       </c>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E74" s="4" t="s">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D74" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K74">
         <v>1822</v>
       </c>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="E75" t="s">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
         <v>37</v>
       </c>
       <c r="G75">
@@ -2127,8 +2127,8 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>50</v>
       </c>
       <c r="G76">
@@ -2170,8 +2170,8 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="77" spans="3:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="15" t="s">
+    <row r="77" spans="2:22" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="15" t="s">
         <v>38</v>
       </c>
       <c r="G77" s="15">
@@ -2214,8 +2214,8 @@
       </c>
       <c r="V77"/>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>41</v>
       </c>
       <c r="G78">
@@ -2257,16 +2257,16 @@
         <v>1.9540000000000002</v>
       </c>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D79" s="4" t="s">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C79" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K79">
         <v>1827</v>
       </c>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
         <v>37</v>
       </c>
       <c r="G80">
@@ -2309,7 +2309,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+      <c r="B81" t="s">
         <v>42</v>
       </c>
       <c r="G81">
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K82">
@@ -2331,7 +2331,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>37</v>
       </c>
       <c r="G83">
@@ -2375,11 +2375,12 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
-      <c r="C84" t="s">
+      <c r="B84" t="s">
         <v>43</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5">
         <v>16.5</v>
@@ -2424,10 +2425,11 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
-      <c r="D85" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -2439,10 +2441,11 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
         <v>75.5</v>
@@ -2487,9 +2490,10 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
-      <c r="C87" t="s">
+      <c r="B87" t="s">
         <v>44</v>
       </c>
+      <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
@@ -2507,9 +2511,10 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="D88" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
@@ -2522,9 +2527,10 @@
     </row>
     <row r="89" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
-      <c r="D89" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="19">
@@ -2571,9 +2577,10 @@
     </row>
     <row r="90" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
-      <c r="E90" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
@@ -2588,9 +2595,10 @@
     </row>
     <row r="91" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
-      <c r="E91" t="s">
+      <c r="D91" t="s">
         <v>37</v>
       </c>
+      <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="19">
         <v>66</v>
@@ -2636,9 +2644,10 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>53</v>
       </c>
+      <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="19">
@@ -2684,9 +2693,10 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
@@ -2698,9 +2708,10 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="E94" t="s">
+      <c r="D94" t="s">
         <v>37</v>
       </c>
+      <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="19">
         <v>98.5</v>
@@ -2745,9 +2756,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
-      <c r="D95" t="s">
+      <c r="C95" t="s">
         <v>54</v>
       </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="19">
@@ -2793,9 +2805,10 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
-      <c r="E96" s="4" t="s">
+      <c r="D96" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
@@ -2807,9 +2820,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
-      <c r="E97" t="s">
+      <c r="D97" t="s">
         <v>37</v>
       </c>
+      <c r="E97" s="5"/>
       <c r="F97" s="5"/>
       <c r="G97" s="19">
         <v>74</v>
@@ -2854,9 +2868,10 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
         <v>55</v>
       </c>
+      <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
       <c r="G98" s="5">
@@ -2902,9 +2917,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
-      <c r="C99" t="s">
+      <c r="B99" t="s">
         <v>45</v>
       </c>
+      <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="5">
         <v>11.5</v>
@@ -2920,9 +2936,10 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="D100" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -2931,9 +2948,10 @@
     </row>
     <row r="101" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
-      <c r="D101" s="11" t="s">
+      <c r="C101" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="5">
         <v>36.5</v>
@@ -2978,10 +2996,11 @@
     </row>
     <row r="102" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="4" t="s">
+      <c r="C102" s="9"/>
+      <c r="D102" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
@@ -2993,10 +3012,11 @@
     </row>
     <row r="103" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
-      <c r="D103" s="9"/>
-      <c r="E103" t="s">
+      <c r="C103" s="9"/>
+      <c r="D103" t="s">
         <v>37</v>
       </c>
+      <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5">
         <v>19.5</v>
@@ -3041,9 +3061,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
-      <c r="D104" s="11" t="s">
+      <c r="C104" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5">
         <v>114</v>
@@ -3088,9 +3109,10 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
-      <c r="C105" t="s">
+      <c r="B105" t="s">
         <v>46</v>
       </c>
+      <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -3108,9 +3130,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
-      <c r="D106" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
@@ -3123,9 +3146,10 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
-      <c r="D107" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="5">
@@ -3171,9 +3195,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
-      <c r="C108" t="s">
+      <c r="B108" t="s">
         <v>47</v>
       </c>
+      <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
@@ -3220,9 +3245,10 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="D109" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
@@ -3235,9 +3261,10 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
-      <c r="D110" s="11" t="s">
+      <c r="C110" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="5">
@@ -3283,9 +3310,10 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
-      <c r="C111" t="s">
+      <c r="B111" t="s">
         <v>48</v>
       </c>
+      <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
@@ -3303,9 +3331,10 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="D112" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="5"/>
@@ -3318,9 +3347,10 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
-      <c r="D113" s="11" t="s">
+      <c r="C113" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5">
@@ -3337,9 +3367,10 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
-      <c r="C114" t="s">
+      <c r="B114" t="s">
         <v>49</v>
       </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
@@ -3357,9 +3388,10 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
-      <c r="D115" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="5"/>
@@ -3372,9 +3404,10 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="D116" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="5">
@@ -3391,9 +3424,10 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
-      <c r="C117" t="s">
+      <c r="B117" t="s">
         <v>50</v>
       </c>
+      <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
@@ -3411,9 +3445,10 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
-      <c r="D118" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="5"/>
@@ -3426,9 +3461,10 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
-      <c r="D119" s="11" t="s">
+      <c r="C119" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5">
@@ -3474,9 +3510,10 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
-      <c r="C120" t="s">
+      <c r="B120" t="s">
         <v>51</v>
       </c>
+      <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -3494,9 +3531,10 @@
     </row>
     <row r="121" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
-      <c r="D121" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
@@ -3509,10 +3547,11 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
-      <c r="D122" s="11" t="s">
+      <c r="C122" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="20"/>
       <c r="F122" s="20"/>
       <c r="G122" s="5">
         <v>84.5</v>
@@ -3528,11 +3567,12 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
-      <c r="C123" t="s">
+      <c r="B123" t="s">
         <v>52</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="6"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="5">
         <v>9.5</v>
@@ -3577,10 +3617,11 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="4" t="s">
+      <c r="B124" s="5"/>
+      <c r="C124" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="I124" s="7"/>
@@ -3591,10 +3632,11 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="11" t="s">
+      <c r="B125" s="5"/>
+      <c r="C125" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="5">
@@ -3640,9 +3682,10 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
-      <c r="C126" t="s">
+      <c r="B126" t="s">
         <v>56</v>
       </c>
+      <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -3691,9 +3734,10 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
-      <c r="D127" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
@@ -3707,9 +3751,10 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
-      <c r="D128" s="11" t="s">
+      <c r="C128" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="5">
@@ -3757,9 +3802,10 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
-      <c r="C129" t="s">
+      <c r="B129" t="s">
         <v>57</v>
       </c>
+      <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -3778,9 +3824,10 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
-      <c r="D130" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
@@ -3794,9 +3841,10 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
-      <c r="D131" s="11" t="s">
+      <c r="C131" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5">
@@ -3844,9 +3892,10 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
-      <c r="C132" t="s">
+      <c r="B132" t="s">
         <v>58</v>
       </c>
+      <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
@@ -3895,9 +3944,10 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
-      <c r="D133" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
@@ -3911,9 +3961,10 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
-      <c r="D134" s="11" t="s">
+      <c r="C134" s="11" t="s">
         <v>37</v>
       </c>
+      <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="5">
@@ -3961,11 +4012,12 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
-      <c r="C135" t="s">
+      <c r="B135" t="s">
         <v>59</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="6"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5">
         <v>4</v>
@@ -3982,10 +4034,11 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
-      <c r="D136" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
@@ -3998,10 +4051,11 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
-      <c r="D137" s="11" t="s">
+      <c r="C137" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="5">
         <v>146</v>
@@ -4048,9 +4102,10 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
-      <c r="C138" t="s">
+      <c r="B138" t="s">
         <v>60</v>
       </c>
+      <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -4101,8 +4156,7 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="D139" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K139">
@@ -4112,8 +4166,7 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="D140" t="s">
+      <c r="C140" t="s">
         <v>37</v>
       </c>
       <c r="G140">
@@ -4159,8 +4212,7 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" t="s">
+      <c r="B141" t="s">
         <v>62</v>
       </c>
       <c r="G141">
@@ -4179,8 +4231,7 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="D142" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K142">
@@ -4190,8 +4241,7 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="D143" t="s">
+      <c r="C143" t="s">
         <v>37</v>
       </c>
       <c r="G143">
@@ -4207,8 +4257,7 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" t="s">
+      <c r="B144" t="s">
         <v>63</v>
       </c>
       <c r="G144">
@@ -4227,8 +4276,7 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="D145" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K145">
@@ -4238,8 +4286,7 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="D146" t="s">
+      <c r="C146" t="s">
         <v>37</v>
       </c>
       <c r="G146">
@@ -4285,8 +4332,7 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" t="s">
+      <c r="B147" t="s">
         <v>64</v>
       </c>
       <c r="G147">
@@ -4335,8 +4381,7 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="D148" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K148">
@@ -4346,8 +4391,7 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="D149" t="s">
+      <c r="C149" t="s">
         <v>37</v>
       </c>
       <c r="G149">
@@ -4363,8 +4407,7 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" t="s">
+      <c r="B150" t="s">
         <v>65</v>
       </c>
       <c r="G150">
@@ -4413,8 +4456,7 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="D151" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K151">
@@ -4424,8 +4466,7 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="D152" t="s">
+      <c r="C152" t="s">
         <v>37</v>
       </c>
       <c r="G152">
@@ -4471,8 +4512,7 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" t="s">
+      <c r="B153" t="s">
         <v>66</v>
       </c>
       <c r="G153">
@@ -4490,7 +4530,7 @@
       <c r="L153"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D154" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K154">
@@ -4499,7 +4539,7 @@
       <c r="L154"/>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D155" t="s">
+      <c r="C155" t="s">
         <v>37</v>
       </c>
       <c r="G155">
@@ -4514,7 +4554,7 @@
       <c r="L155"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+      <c r="B156" t="s">
         <v>67</v>
       </c>
       <c r="G156">
@@ -4562,7 +4602,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D157" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K157">
@@ -4571,7 +4611,7 @@
       <c r="L157"/>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D158" t="s">
+      <c r="C158" t="s">
         <v>37</v>
       </c>
       <c r="G158">
@@ -4616,7 +4656,7 @@
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+      <c r="B159" t="s">
         <v>68</v>
       </c>
       <c r="G159">
@@ -4634,7 +4674,7 @@
       <c r="L159"/>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D160" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K160">
@@ -4642,8 +4682,8 @@
       </c>
       <c r="L160"/>
     </row>
-    <row r="161" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D161" t="s">
+    <row r="161" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
         <v>37</v>
       </c>
       <c r="G161">
@@ -4657,8 +4697,8 @@
       </c>
       <c r="L161"/>
     </row>
-    <row r="162" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
+    <row r="162" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
         <v>69</v>
       </c>
       <c r="G162">
@@ -4675,8 +4715,8 @@
       </c>
       <c r="L162"/>
     </row>
-    <row r="163" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D163" s="4" t="s">
+    <row r="163" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C163" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K163">
@@ -4684,8 +4724,8 @@
       </c>
       <c r="L163"/>
     </row>
-    <row r="164" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D164" t="s">
+    <row r="164" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
         <v>37</v>
       </c>
       <c r="G164">
@@ -4729,8 +4769,8 @@
         <v>0.51439999999999997</v>
       </c>
     </row>
-    <row r="165" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
+    <row r="165" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
         <v>70</v>
       </c>
       <c r="G165">
@@ -4777,8 +4817,8 @@
         <v>0.79659999999999997</v>
       </c>
     </row>
-    <row r="166" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D166" s="4" t="s">
+    <row r="166" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C166" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K166">
@@ -4786,8 +4826,8 @@
       </c>
       <c r="L166"/>
     </row>
-    <row r="167" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D167" t="s">
+    <row r="167" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
         <v>37</v>
       </c>
       <c r="G167">
@@ -4801,8 +4841,8 @@
       </c>
       <c r="L167"/>
     </row>
-    <row r="168" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+    <row r="168" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
         <v>71</v>
       </c>
       <c r="G168">
@@ -4819,8 +4859,8 @@
       </c>
       <c r="L168"/>
     </row>
-    <row r="169" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D169" s="4" t="s">
+    <row r="169" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C169" s="4" t="s">
         <v>39</v>
       </c>
       <c r="K169">
@@ -4828,8 +4868,8 @@
       </c>
       <c r="L169"/>
     </row>
-    <row r="170" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="D170" t="s">
+    <row r="170" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
         <v>37</v>
       </c>
       <c r="G170">
@@ -4873,8 +4913,8 @@
         <v>0.4753</v>
       </c>
     </row>
-    <row r="171" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
+    <row r="171" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
         <v>72</v>
       </c>
       <c r="G171">
@@ -4928,6 +4968,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D817E2E441AD8840AD152F485CF91FFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9bd92fc451d28d7a43c1e2d68c8f297e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3bb3ef3-874e-4bfe-a810-81c575a8e62c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6122410798bbeb3d5138414ef9c1dd21" ns2:_="">
     <xsd:import namespace="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
@@ -5059,15 +5108,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -5075,13 +5115,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2531B386-6CD6-4AE8-BF88-252337E353F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94F30481-1A04-4674-9203-7E54B49ECC3B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94F30481-1A04-4674-9203-7E54B49ECC3B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2531B386-6CD6-4AE8-BF88-252337E353F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8AD409-C6F8-487B-9FF0-304148B62A04}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8AD409-C6F8-487B-9FF0-304148B62A04}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/0-data/0-raw/tree2h.xlsx
+++ b/0-data/0-raw/tree2h.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="A2H" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A2H!$H$1:$H$171</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:E171"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,7 +2929,7 @@
         <v>11.5</v>
       </c>
       <c r="H99" s="5">
-        <v>415</v>
+        <v>41.5</v>
       </c>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
@@ -3643,7 +3646,7 @@
         <v>87</v>
       </c>
       <c r="H125" s="5">
-        <v>84</v>
+        <v>8.4</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -4977,8 +4980,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D817E2E441AD8840AD152F485CF91FFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9bd92fc451d28d7a43c1e2d68c8f297e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3bb3ef3-874e-4bfe-a810-81c575a8e62c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6122410798bbeb3d5138414ef9c1dd21" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D817E2E441AD8840AD152F485CF91FFD" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="66b1d846b1b9efb7ee546c90ee14313c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3bb3ef3-874e-4bfe-a810-81c575a8e62c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f185daa67cb9aaba26ea2e5f6e3f3c05" ns2:_="">
     <xsd:import namespace="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -4988,6 +4997,10 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5006,6 +5019,28 @@
     <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5108,12 +5143,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94F30481-1A04-4674-9203-7E54B49ECC3B}">
   <ds:schemaRefs>
@@ -5123,35 +5152,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2531B386-6CD6-4AE8-BF88-252337E353F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8AD409-C6F8-487B-9FF0-304148B62A04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8AD409-C6F8-487B-9FF0-304148B62A04}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1554A77-5C45-4E0A-91E1-0F7043F0BCCB}"/>
 </file>